--- a/Manual Testing  2/Session1_CE(1).xlsx
+++ b/Manual Testing  2/Session1_CE(1).xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zexan\Downloads\727722EUCS209-Software-Testing-main\Manual Testing  2\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0FC69EDB-0AB6-4835-8813-9D95A607FA69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="192" yWindow="132" windowWidth="19092" windowHeight="9240" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -105,8 +111,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -123,7 +129,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -133,6 +139,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -149,23 +167,33 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -203,7 +231,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -237,6 +265,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -271,9 +300,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -446,14 +476,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="4" max="4" width="12.6640625" customWidth="1"/>
     <col min="7" max="7" width="17.33203125" customWidth="1"/>
@@ -462,7 +492,7 @@
     <col min="16" max="16" width="17.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -488,17 +518,17 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K73"/>
+  <dimension ref="A1:O73"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="22.77734375" customWidth="1"/>
     <col min="2" max="2" width="2.5546875" customWidth="1"/>
@@ -512,7 +542,7 @@
     <col min="10" max="11" width="18.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="49.95" customHeight="1">
+    <row r="1" spans="1:15" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -522,7 +552,7 @@
       <c r="E1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I1" s="2" t="s">
@@ -530,128 +560,174 @@
       </c>
       <c r="K1" s="1"/>
     </row>
-    <row r="2" spans="1:11" ht="49.95" customHeight="1"/>
-    <row r="3" spans="1:11" ht="49.95" customHeight="1">
-      <c r="A3" t="s">
+    <row r="2" spans="1:15" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+    </row>
+    <row r="3" spans="1:15" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C3">
+      <c r="B3" s="4"/>
+      <c r="C3" s="4">
         <v>1</v>
       </c>
-      <c r="E3" t="s">
+      <c r="D3" s="4"/>
+      <c r="E3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G3" t="s">
+      <c r="F3" s="4"/>
+      <c r="G3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="I3" t="s">
+      <c r="H3" s="4"/>
+      <c r="I3" s="4" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" ht="49.95" customHeight="1">
-      <c r="A4" t="s">
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+    </row>
+    <row r="4" spans="1:15" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C4">
+      <c r="B4" s="4"/>
+      <c r="C4" s="4">
         <v>2</v>
       </c>
-      <c r="E4" t="s">
+      <c r="D4" s="4"/>
+      <c r="E4" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="G4" t="s">
+      <c r="F4" s="4"/>
+      <c r="G4" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="I4" t="s">
+      <c r="H4" s="4"/>
+      <c r="I4" s="4" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" ht="49.95" customHeight="1">
-      <c r="A5" t="s">
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+    </row>
+    <row r="5" spans="1:15" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C5">
+      <c r="B5" s="4"/>
+      <c r="C5" s="4">
         <v>3</v>
       </c>
-      <c r="E5" t="s">
+      <c r="D5" s="4"/>
+      <c r="E5" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="G5" t="s">
+      <c r="F5" s="4"/>
+      <c r="G5" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="I5" t="s">
+      <c r="H5" s="4"/>
+      <c r="I5" s="4" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" ht="49.95" customHeight="1"/>
-    <row r="7" spans="1:11" ht="49.95" customHeight="1">
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+    </row>
+    <row r="6" spans="1:15" ht="49.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:15" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:11" ht="49.95" customHeight="1"/>
-    <row r="9" spans="1:11" ht="49.95" customHeight="1"/>
-    <row r="10" spans="1:11" ht="49.95" customHeight="1"/>
-    <row r="11" spans="1:11" ht="49.95" customHeight="1"/>
-    <row r="12" spans="1:11" ht="49.95" customHeight="1"/>
-    <row r="13" spans="1:11" ht="49.95" customHeight="1"/>
-    <row r="14" spans="1:11" ht="49.95" customHeight="1"/>
-    <row r="15" spans="1:11" ht="49.95" customHeight="1"/>
-    <row r="16" spans="1:11" ht="49.95" customHeight="1"/>
-    <row r="17" ht="49.95" customHeight="1"/>
-    <row r="18" ht="49.95" customHeight="1"/>
-    <row r="19" ht="49.95" customHeight="1"/>
-    <row r="20" ht="49.95" customHeight="1"/>
-    <row r="21" ht="49.95" customHeight="1"/>
-    <row r="22" ht="49.95" customHeight="1"/>
-    <row r="23" ht="49.95" customHeight="1"/>
-    <row r="24" ht="49.95" customHeight="1"/>
-    <row r="25" ht="49.95" customHeight="1"/>
-    <row r="26" ht="49.95" customHeight="1"/>
-    <row r="27" ht="49.95" customHeight="1"/>
-    <row r="28" ht="49.95" customHeight="1"/>
-    <row r="29" ht="49.95" customHeight="1"/>
-    <row r="30" ht="49.95" customHeight="1"/>
-    <row r="31" ht="49.95" customHeight="1"/>
-    <row r="32" ht="49.95" customHeight="1"/>
-    <row r="33" ht="49.95" customHeight="1"/>
-    <row r="34" ht="49.95" customHeight="1"/>
-    <row r="35" ht="49.95" customHeight="1"/>
-    <row r="36" ht="49.95" customHeight="1"/>
-    <row r="37" ht="49.95" customHeight="1"/>
-    <row r="38" ht="49.95" customHeight="1"/>
-    <row r="39" ht="49.95" customHeight="1"/>
-    <row r="40" ht="49.95" customHeight="1"/>
-    <row r="41" ht="49.95" customHeight="1"/>
-    <row r="42" ht="49.95" customHeight="1"/>
-    <row r="43" ht="49.95" customHeight="1"/>
-    <row r="44" ht="49.95" customHeight="1"/>
-    <row r="45" ht="49.95" customHeight="1"/>
-    <row r="46" ht="49.95" customHeight="1"/>
-    <row r="47" ht="49.95" customHeight="1"/>
-    <row r="48" ht="49.95" customHeight="1"/>
-    <row r="49" ht="49.95" customHeight="1"/>
-    <row r="50" ht="49.95" customHeight="1"/>
-    <row r="51" ht="49.95" customHeight="1"/>
-    <row r="52" ht="49.95" customHeight="1"/>
-    <row r="53" ht="49.95" customHeight="1"/>
-    <row r="54" ht="49.95" customHeight="1"/>
-    <row r="55" ht="49.95" customHeight="1"/>
-    <row r="56" ht="49.95" customHeight="1"/>
-    <row r="57" ht="49.95" customHeight="1"/>
-    <row r="58" ht="49.95" customHeight="1"/>
-    <row r="59" ht="49.95" customHeight="1"/>
-    <row r="60" ht="49.95" customHeight="1"/>
-    <row r="61" ht="49.95" customHeight="1"/>
-    <row r="62" ht="49.95" customHeight="1"/>
-    <row r="63" ht="49.95" customHeight="1"/>
-    <row r="64" ht="49.95" customHeight="1"/>
-    <row r="65" ht="49.95" customHeight="1"/>
-    <row r="66" ht="49.95" customHeight="1"/>
-    <row r="67" ht="49.95" customHeight="1"/>
-    <row r="68" ht="49.95" customHeight="1"/>
-    <row r="69" ht="49.95" customHeight="1"/>
-    <row r="70" ht="49.95" customHeight="1"/>
-    <row r="71" ht="49.95" customHeight="1"/>
-    <row r="72" ht="49.95" customHeight="1"/>
-    <row r="73" ht="49.95" customHeight="1"/>
+    <row r="8" spans="1:15" ht="49.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:15" ht="49.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:15" ht="49.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:15" ht="49.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:15" ht="49.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:15" ht="49.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:15" ht="49.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:15" ht="49.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:15" ht="49.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="17" ht="49.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="18" ht="49.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="19" ht="49.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="20" ht="49.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="21" ht="49.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="22" ht="49.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="23" ht="49.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="24" ht="49.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="25" ht="49.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="26" ht="49.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="27" ht="49.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="28" ht="49.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="29" ht="49.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="30" ht="49.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="31" ht="49.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="32" ht="49.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="33" ht="49.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="34" ht="49.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="35" ht="49.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="36" ht="49.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="37" ht="49.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="38" ht="49.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="39" ht="49.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="40" ht="49.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="41" ht="49.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="42" ht="49.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="43" ht="49.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="44" ht="49.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="45" ht="49.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="46" ht="49.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="47" ht="49.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="48" ht="49.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="49" ht="49.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="50" ht="49.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="51" ht="49.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="52" ht="49.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="53" ht="49.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="54" ht="49.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="55" ht="49.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="56" ht="49.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="57" ht="49.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="58" ht="49.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="59" ht="49.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="60" ht="49.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="61" ht="49.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="62" ht="49.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="63" ht="49.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="64" ht="49.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="65" ht="49.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="66" ht="49.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="67" ht="49.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="68" ht="49.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="69" ht="49.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="70" ht="49.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="71" ht="49.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="72" ht="49.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="73" ht="49.95" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="3" fitToWidth="7" fitToHeight="7" orientation="portrait" r:id="rId1"/>
@@ -659,41 +735,41 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:A11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>15</v>
       </c>
